--- a/src/main/resources/template/excel/export/purchaseCostFormDetail.xlsx
+++ b/src/main/resources/template/excel/export/purchaseCostFormDetail.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
+    <workbookView xWindow="3800" yWindow="9300" windowWidth="25600" windowHeight="15460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="Q4")</t>
+          <t>jx:area(lastCell="R4")</t>
         </r>
       </text>
     </comment>
@@ -54,7 +54,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="Q3")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="R3")</t>
         </r>
       </text>
     </comment>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>合计：</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -195,35 +195,49 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>税率</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.tax}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>税额</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.taxAmount}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(L3:L3+0)]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(M3:M3+0)]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售价</t>
+    <rPh sb="0" eb="1">
+      <t>xiao's</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>${obj.totalMoney}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>税率</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.tax}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>税额</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.taxAmount}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(L3:L3+0)]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(M3:M3+0)]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>$[SUMPRODUCT(N3:N3+0)]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.salePrice}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -374,11 +388,11 @@
     <xf numFmtId="177" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -752,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q100"/>
+  <dimension ref="A1:R100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -771,34 +785,36 @@
     <col min="12" max="12" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="2"/>
+    <col min="15" max="15" width="15.1640625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -842,16 +858,19 @@
         <v>30</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Q2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -870,10 +889,10 @@
       <c r="F3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>19</v>
       </c>
       <c r="I3" s="5" t="s">
@@ -892,19 +911,22 @@
         <v>29</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -919,30 +941,31 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="N4" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
     </row>
-    <row r="5" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1029,7 +1052,7 @@
     <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A1:R1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
